--- a/4. Training/Training.xlsx
+++ b/4. Training/Training.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Lesson</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=g4VUX-VCes8</t>
+  </si>
+  <si>
+    <t>Asynctask android</t>
+  </si>
+  <si>
+    <t>singleton android</t>
+  </si>
+  <si>
+    <t>Parse Json android</t>
+  </si>
+  <si>
+    <t>Json</t>
   </si>
 </sst>
 </file>
@@ -240,6 +252,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -275,6 +304,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,6 +573,26 @@
       </c>
       <c r="D6" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/4. Training/Training.xlsx
+++ b/4. Training/Training.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dekiru Nihongo\trunk\4. Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programing\Android\Project\DekiruNihongo\trunk\4. Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -160,8 +160,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,15 +476,15 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="47.42578125" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="69.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="64.5703125" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -606,9 +606,9 @@
     <hyperlink ref="C5" r:id="rId7"/>
     <hyperlink ref="D3" r:id="rId8"/>
     <hyperlink ref="B3" r:id="rId9"/>
-    <hyperlink ref="D2" r:id="rId10" display="https://laptrinhtuduy.wordpress.com/2014/04/29/fragment-trong-android/"/>
-    <hyperlink ref="D5" r:id="rId11"/>
-    <hyperlink ref="E2" r:id="rId12"/>
+    <hyperlink ref="D5" r:id="rId10"/>
+    <hyperlink ref="E2" r:id="rId11"/>
+    <hyperlink ref="D2" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
